--- a/data-raw/organellar list.xlsx
+++ b/data-raw/organellar list.xlsx
@@ -135,9 +135,6 @@
     <t>Microtubule ends(Cytoskeleton)</t>
   </si>
   <si>
-    <t>Focal adhesion sites (Cytoskeleton)</t>
-  </si>
-  <si>
     <t>Lipid droplets(Vacuole)</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>Actin filaments(Cytoskeleton)</t>
+  </si>
+  <si>
+    <t>Focal adhesion sites(Cytoskeleton)</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -697,7 +697,7 @@
         <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -716,7 +716,7 @@
         <v>28</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="4:9">
@@ -748,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="4:9">
@@ -756,7 +756,7 @@
         <v>34</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="4:9">
@@ -764,7 +764,7 @@
         <v>32</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="4:9">
@@ -789,7 +789,7 @@
     </row>
     <row r="27" spans="4:9">
       <c r="I27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="4:9">
@@ -804,7 +804,7 @@
     </row>
     <row r="30" spans="4:9">
       <c r="I30" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="4:9">
@@ -814,27 +814,27 @@
     </row>
     <row r="32" spans="4:9">
       <c r="I32" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
